--- a/Excel/TI/Mon_TI_2024_11_24.xlsx
+++ b/Excel/TI/Mon_TI_2024_11_24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL21"/>
+  <dimension ref="A1:AL22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,7 +653,7 @@
         <v>34.9</v>
       </c>
       <c r="I2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -662,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
@@ -792,44 +792,44 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>34.4</v>
+        <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="H3" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="I3" t="n">
         <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>6</v>
       </c>
       <c r="N3" t="n">
+        <v>36</v>
+      </c>
+      <c r="O3" t="n">
         <v>30</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>42</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>40</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>17</v>
       </c>
-      <c r="R3" t="n">
-        <v>43</v>
-      </c>
       <c r="S3" t="inlineStr">
         <is>
           <t>vs</t>
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>-3</v>
+        <v>-3.1</v>
       </c>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
@@ -924,78 +924,78 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>32.6</v>
+        <v>38.8</v>
       </c>
       <c r="G4" t="n">
         <v>32.9</v>
       </c>
       <c r="H4" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="I4" t="n">
         <v>15</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
         <v>6</v>
       </c>
-      <c r="L4" t="n">
-        <v>5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
       <c r="N4" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O4" t="n">
         <v>28</v>
       </c>
       <c r="P4" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q4" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="R4" t="n">
+        <v>27</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
         <v>32</v>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V4" t="n">
-        <v>22</v>
-      </c>
       <c r="W4" t="inlineStr">
         <is>
           <t>-</t>
@@ -1018,51 +1018,51 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
           <t>BOS</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>WAS</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.3</v>
+        <v>1.2</v>
       </c>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
@@ -1075,54 +1075,56 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>38.8</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>32.9</v>
+        <v>32.2</v>
       </c>
       <c r="H5" t="n">
-        <v>33.2</v>
+        <v>32.1</v>
       </c>
       <c r="I5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
         <v>41</v>
       </c>
-      <c r="O5" t="n">
-        <v>28</v>
-      </c>
-      <c r="P5" t="n">
-        <v>49</v>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q5" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="R5" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -1140,7 +1142,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -1208,7 +1210,7 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>1.2</v>
+        <v>-7.1</v>
       </c>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
@@ -1221,7 +1223,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Darius Garland</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1232,45 +1234,45 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>29.8</v>
       </c>
       <c r="G6" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="H6" t="n">
-        <v>32.1</v>
+        <v>30.1</v>
       </c>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O6" t="n">
-        <v>41</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>46</v>
       </c>
       <c r="Q6" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="R6" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -1356,7 +1358,7 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>-7.1</v>
+        <v>5.8</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
@@ -1364,19 +1366,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Darius Garland</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Day-To-Day</t>
-        </is>
-      </c>
+          <t>James Harden</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>G</t>
@@ -1384,63 +1382,61 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>29.8</v>
+        <v>32.8</v>
       </c>
       <c r="G7" t="n">
         <v>32</v>
       </c>
       <c r="H7" t="n">
-        <v>30.1</v>
+        <v>33</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N7" t="n">
+        <v>33</v>
       </c>
       <c r="O7" t="n">
-        <v>-2</v>
+        <v>37</v>
       </c>
       <c r="P7" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="Q7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R7" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1464,12 +1460,12 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1479,17 +1475,17 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1499,16 +1495,16 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>5.8</v>
+        <v>-0.3</v>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
@@ -1541,7 +1537,7 @@
         <v>33</v>
       </c>
       <c r="I8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -1550,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
@@ -1820,65 +1816,67 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cam Thomas</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Probable</t>
-        </is>
-      </c>
+          <t>Scottie Barnes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>32.4</v>
+        <v>30.4</v>
       </c>
       <c r="G10" t="n">
-        <v>30.8</v>
+        <v>30.4</v>
       </c>
       <c r="H10" t="n">
-        <v>30.8</v>
+        <v>30.4</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>2</v>
       </c>
-      <c r="K10" t="n">
-        <v>6</v>
-      </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>22</v>
-      </c>
-      <c r="P10" t="n">
-        <v>62</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>26</v>
-      </c>
-      <c r="R10" t="n">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>27</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1887,18 +1885,16 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>10</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1927,7 +1923,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -1937,17 +1933,17 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -1957,7 +1953,7 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -1966,7 +1962,7 @@
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>3.7</v>
+        <v>-4.4</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
@@ -1974,85 +1970,79 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>Bam Adebayo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>30.4</v>
+        <v>34</v>
       </c>
       <c r="G11" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="H11" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
         <v>4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>27</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>17</v>
+      </c>
+      <c r="O11" t="n">
+        <v>35</v>
+      </c>
+      <c r="P11" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>40</v>
+      </c>
+      <c r="R11" t="n">
+        <v>16</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V11" t="n">
-        <v>10</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -2076,12 +2066,12 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -2091,36 +2081,36 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>-4.4</v>
+        <v>-7.6</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
@@ -2128,68 +2118,70 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
+          <t>Cam Thomas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>34</v>
+        <v>31.4</v>
       </c>
       <c r="G12" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="H12" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" t="n">
         <v>2</v>
       </c>
-      <c r="L12" t="n">
-        <v>3</v>
-      </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
-      </c>
-      <c r="O12" t="n">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P12" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q12" t="n">
         <v>62</v>
       </c>
-      <c r="Q12" t="n">
-        <v>40</v>
-      </c>
       <c r="R12" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2224,12 +2216,12 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -2239,7 +2231,7 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -2249,26 +2241,26 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>-7.6</v>
+        <v>2.8</v>
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
@@ -2276,59 +2268,59 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Cameron Johnson</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>27.4</v>
+        <v>36.2</v>
       </c>
       <c r="G13" t="n">
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="H13" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="I13" t="n">
         <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
         <v>6</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O13" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="P13" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q13" t="n">
         <v>30</v>
       </c>
-      <c r="Q13" t="n">
-        <v>24</v>
-      </c>
       <c r="R13" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -2337,7 +2329,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -2372,22 +2364,22 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -2397,7 +2389,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -2407,7 +2399,7 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -2416,7 +2408,7 @@
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
@@ -2440,19 +2432,19 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>23.8</v>
+        <v>24.6</v>
       </c>
       <c r="G14" t="n">
-        <v>26</v>
+        <v>28.1</v>
       </c>
       <c r="H14" t="n">
-        <v>26</v>
+        <v>28.1</v>
       </c>
       <c r="I14" t="n">
         <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -2461,15 +2453,13 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
+        <v>45</v>
+      </c>
+      <c r="O14" t="n">
         <v>2</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -2570,7 +2560,7 @@
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>4.7</v>
+        <v>6.1</v>
       </c>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
@@ -2578,68 +2568,68 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>27.4</v>
       </c>
       <c r="G15" t="n">
-        <v>22.9</v>
+        <v>27.5</v>
       </c>
       <c r="H15" t="n">
-        <v>22.9</v>
+        <v>27.5</v>
       </c>
       <c r="I15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
         <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="O15" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="R15" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -2679,7 +2669,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -2689,7 +2679,7 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
@@ -2699,26 +2689,26 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>9.6</v>
+        <v>-0.5</v>
       </c>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
@@ -2726,68 +2716,68 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>18.2</v>
+        <v>21.8</v>
       </c>
       <c r="G16" t="n">
-        <v>18.9</v>
+        <v>23.5</v>
       </c>
       <c r="H16" t="n">
-        <v>18.9</v>
+        <v>23</v>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
         <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O16" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="P16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q16" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="R16" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -2827,7 +2817,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -2837,17 +2827,17 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -2857,16 +2847,16 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ16" t="n">
-        <v>0.7</v>
+        <v>9.5</v>
       </c>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
@@ -2874,59 +2864,65 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Nic Claxton</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>5.6</v>
+        <v>21.2</v>
       </c>
       <c r="G17" t="n">
-        <v>11.1</v>
+        <v>21.6</v>
       </c>
       <c r="H17" t="n">
-        <v>11.1</v>
+        <v>21.6</v>
       </c>
       <c r="I17" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
-      </c>
-      <c r="O17" t="n">
-        <v>18</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>-6</v>
+        <v>26</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2935,7 +2931,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -2970,22 +2966,22 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
@@ -2995,7 +2991,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -3005,7 +3001,7 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -3014,7 +3010,7 @@
         </is>
       </c>
       <c r="AJ17" t="n">
-        <v>-3.5</v>
+        <v>-0.9</v>
       </c>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
@@ -3022,70 +3018,60 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nic Claxton</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>Kyle Kuzma</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>20.8</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>21.2</v>
+        <v>19.4</v>
       </c>
       <c r="H18" t="n">
-        <v>21.2</v>
+        <v>19.4</v>
       </c>
       <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>24</v>
+      </c>
+      <c r="O18" t="n">
+        <v>18</v>
+      </c>
+      <c r="P18" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>18</v>
+      </c>
+      <c r="R18" t="n">
         <v>10</v>
       </c>
-      <c r="J18" t="n">
-        <v>4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
-        <v>9</v>
-      </c>
-      <c r="R18" t="n">
-        <v>28</v>
-      </c>
       <c r="S18" t="inlineStr">
         <is>
           <t>@</t>
@@ -3093,7 +3079,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -3128,42 +3114,42 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
@@ -3172,7 +3158,7 @@
         </is>
       </c>
       <c r="AJ18" t="n">
-        <v>-1.6</v>
+        <v>0.2</v>
       </c>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
@@ -3180,134 +3166,130 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Paul George</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>Donte DiVincenzo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>20.8</v>
+        <v>5.6</v>
       </c>
       <c r="G19" t="n">
-        <v>20.4</v>
+        <v>11.1</v>
       </c>
       <c r="H19" t="n">
-        <v>20.4</v>
+        <v>11.1</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>18</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-6</v>
+      </c>
+      <c r="R19" t="n">
         <v>2</v>
       </c>
-      <c r="O19" t="n">
-        <v>26</v>
-      </c>
-      <c r="P19" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>48</v>
-      </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
           <t>LAC</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V19" t="n">
-        <v>35</v>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>CHA</t>
-        </is>
-      </c>
       <c r="AG19" t="inlineStr">
         <is>
           <t>vs</t>
@@ -3315,16 +3297,16 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ19" t="n">
-        <v>10.6</v>
+        <v>-3.5</v>
       </c>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
@@ -3332,12 +3314,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kristaps Porziņģis</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3347,53 +3329,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>14</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -3407,18 +3383,16 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V20" t="n">
+        <v>35</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -3447,7 +3421,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -3457,7 +3431,7 @@
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
@@ -3467,7 +3441,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
@@ -3477,7 +3451,7 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
@@ -3486,7 +3460,7 @@
         </is>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
@@ -3494,12 +3468,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>Kristaps Porziņģis</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3509,7 +3483,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -3564,12 +3538,12 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -3604,12 +3578,12 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -3619,7 +3593,7 @@
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
@@ -3629,7 +3603,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -3639,12 +3613,12 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ21" t="n">
@@ -3652,6 +3626,168 @@
       </c>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Kawhi Leonard</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
